--- a/public/templates/材料成分表批导模板V2.0.xlsx
+++ b/public/templates/材料成分表批导模板V2.0.xlsx
@@ -174,7 +174,7 @@
     <t>基本单位代码</t>
   </si>
   <si>
-    <t>豁免条款</t>
+    <t>豁免条款代码</t>
   </si>
   <si>
     <t>含量值类型</t>
@@ -739,12 +739,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,27 +793,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,6 +822,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,74 +921,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -912,40 +930,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -960,7 +947,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -993,25 +980,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,25 +1130,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,127 +1154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,13 +1183,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,15 +1231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1261,17 +1246,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,152 +1283,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1511,8 +1492,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1880,10 +1864,11 @@
     <col min="9" max="9" width="17" style="17" customWidth="1"/>
     <col min="10" max="10" width="21.75" style="17" customWidth="1"/>
     <col min="11" max="11" width="15" style="17" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="17"/>
+    <col min="12" max="12" width="12.375" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" ht="80" hidden="1" customHeight="1" spans="2:12">
+    <row r="1" ht="24" hidden="1" customHeight="1" spans="2:12">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1934,7 @@
       <c r="J2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="20" t="s">
